--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/USI/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12CEC97-2C32-2540-9320-B81AB27BADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8B8469-F9CA-5D41-AF40-3851E2D1932C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,13 +418,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B4">
+        <v>700</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B3,A1:A3)</f>
-        <v>50.444029850747029</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B4,A1:A4)</f>
+        <v>2047.2827868852764</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/USI/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8B8469-F9CA-5D41-AF40-3851E2D1932C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379968D-053A-AC49-9865-32160B5F8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>2524 urls</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BE1424-0CE5-3448-AC8F-FC277EC06FF4}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,7 +402,7 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>44973</v>
       </c>
@@ -402,7 +410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44987</v>
       </c>
@@ -410,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44991</v>
       </c>
@@ -418,12 +426,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44993</v>
       </c>
       <c r="B4">
         <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B5">
+        <v>60031</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -431,8 +450,8 @@
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B4,A1:A4)</f>
-        <v>2047.2827868852764</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B5,A1:A5)</f>
+        <v>104778.9337708801</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/USI/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379968D-053A-AC49-9865-32160B5F8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C0F0A-5E22-1F4C-BB7D-B4C7B036CF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>2524 urls</t>
+  </si>
+  <si>
+    <t>800 urls</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -95,7 +98,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,7 +397,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,13 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B6">
+        <v>59151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B7">
+        <v>60269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B5,A1:A5)</f>
-        <v>104778.9337708801</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B7,A1:A7)</f>
+        <v>98554.83383885771</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C0F0A-5E22-1F4C-BB7D-B4C7B036CF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553FD4B-5D83-1D42-9D48-8F16B7A64519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>2524 urls</t>
   </si>
   <si>
     <t>800 urls</t>
+  </si>
+  <si>
+    <t>20800 urls</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,13 +473,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B8">
+        <v>97240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B7,A1:A7)</f>
-        <v>98554.83383885771</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B8,A1:A8)</f>
+        <v>113834.23896031082</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553FD4B-5D83-1D42-9D48-8F16B7A64519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA534C-A851-844D-AB63-A2542DC2600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -484,13 +484,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B9">
+        <v>152032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B10">
+        <v>154937</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B8,A1:A8)</f>
-        <v>113834.23896031082</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B10,A1:A10)</f>
+        <v>159031.90629118681</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA534C-A851-844D-AB63-A2542DC2600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C1B57-0DDF-8747-92E9-A06E1BFBBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1:$A$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,6 +106,964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>154937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170581.70292432606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B8-4B4B-90CD-33F0680595DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1002814271"/>
+        <c:axId val="1002815999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1002814271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002815999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1002815999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002814271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEAB147-9683-5BFD-6F21-547AA035F010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,7 +1366,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,16 +1466,25 @@
         <v>154937</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B11">
+        <v>155297</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B10,A1:A10)</f>
-        <v>159031.90629118681</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B11,A1:A11)</f>
+        <v>170581.70292432606</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C1B57-0DDF-8747-92E9-A06E1BFBBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986CF5F-0CA3-A64B-864E-66835C267139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1:$B$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -224,6 +216,9 @@
                 <c:pt idx="10">
                   <c:v>45050</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>45054</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -269,8 +264,11 @@
                 <c:pt idx="10">
                   <c:v>155297</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>158304</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>170581.70292432606</c:v>
+                  <c:v>178264.03980854154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1364,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,13 +1472,21 @@
         <v>155297</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B12">
+        <v>158304</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B11,A1:A11)</f>
-        <v>170581.70292432606</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B12,A1:A12)</f>
+        <v>178264.03980854154</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986CF5F-0CA3-A64B-864E-66835C267139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87E154-32B2-6242-AB95-C545F73F5353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -219,6 +219,12 @@
                 <c:pt idx="11">
                   <c:v>45054</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45056</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -267,8 +273,14 @@
                 <c:pt idx="11">
                   <c:v>158304</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>162458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174187</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>178264.03980854154</c:v>
+                  <c:v>190655.26739892364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1376,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,13 +1492,29 @@
         <v>158304</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B13">
+        <v>162458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B14">
+        <v>174187</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B12,A1:A12)</f>
-        <v>178264.03980854154</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B14,A1:A14)</f>
+        <v>190655.26739892364</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87E154-32B2-6242-AB95-C545F73F5353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A0B76-1B5C-F54E-BBE2-F13A5561E8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
@@ -36,17 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>2524 urls</t>
-  </si>
-  <si>
-    <t>800 urls</t>
-  </si>
-  <si>
-    <t>20800 urls</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -225,6 +215,9 @@
                 <c:pt idx="13">
                   <c:v>45056</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45057</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -279,8 +272,11 @@
                 <c:pt idx="13">
                   <c:v>174187</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>178682</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>190655.26739892364</c:v>
+                  <c:v>196007.10782274604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BE1424-0CE5-3448-AC8F-FC277EC06FF4}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1380,7 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>44973</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44987</v>
       </c>
@@ -1400,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44991</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44993</v>
       </c>
@@ -1416,51 +1412,39 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45033</v>
       </c>
       <c r="B5">
         <v>60031</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45042</v>
       </c>
       <c r="B6">
         <v>59151</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45043</v>
       </c>
       <c r="B7">
         <v>60269</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45044</v>
       </c>
       <c r="B8">
         <v>97240</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45047</v>
       </c>
@@ -1468,7 +1452,7 @@
         <v>152032</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45049</v>
       </c>
@@ -1476,7 +1460,7 @@
         <v>154937</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45050</v>
       </c>
@@ -1484,7 +1468,7 @@
         <v>155297</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45054</v>
       </c>
@@ -1492,7 +1476,7 @@
         <v>158304</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45055</v>
       </c>
@@ -1500,12 +1484,20 @@
         <v>162458</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45056</v>
       </c>
       <c r="B14">
         <v>174187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B15">
+        <v>178682</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,8 +1505,8 @@
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B14,A1:A14)</f>
-        <v>190655.26739892364</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B15,A1:A15)</f>
+        <v>196007.10782274604</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A0B76-1B5C-F54E-BBE2-F13A5561E8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA467AE-477C-6A4F-A7EB-97546503F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
+    <workbookView xWindow="8940" yWindow="2000" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,6 +214,9 @@
                 <c:pt idx="14">
                   <c:v>45057</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>45058</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -275,8 +274,11 @@
                 <c:pt idx="14">
                   <c:v>178682</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>180476</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>196007.10782274604</c:v>
+                  <c:v>200235.37505869567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,7 +1374,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,13 +1502,21 @@
         <v>178682</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B16">
+        <v>180476</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B15,A1:A15)</f>
-        <v>196007.10782274604</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B16,A1:A16)</f>
+        <v>200235.37505869567</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/USI/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA467AE-477C-6A4F-A7EB-97546503F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F80CD1C-7EBF-104B-A791-798329B3909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="2000" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
+    <workbookView xWindow="27500" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -89,7 +89,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -126,7 +126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="it-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -217,6 +217,9 @@
                 <c:pt idx="15">
                   <c:v>45058</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>45061</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -277,8 +280,11 @@
                 <c:pt idx="15">
                   <c:v>180476</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>204695</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>200235.37505869567</c:v>
+                  <c:v>206306.54124951363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,7 +362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002815999"/>
@@ -418,7 +424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="it-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1002814271"/>
@@ -466,7 +472,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="it-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1075,7 +1081,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1374,7 +1380,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,13 +1516,21 @@
         <v>180476</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B17">
+        <v>204695</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B16,A1:A16)</f>
-        <v>200235.37505869567</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B17,A1:A17)</f>
+        <v>206306.54124951363</v>
       </c>
     </row>
   </sheetData>

--- a/docs/api_forecast.xlsx
+++ b/docs/api_forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottavio/Documents/USI/Thesis/2022-MSDE-OttavioBuonomo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F80CD1C-7EBF-104B-A791-798329B3909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039B26A-90C5-D649-B705-75D72FA89F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27500" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
+    <workbookView xWindow="6700" yWindow="5160" windowWidth="28040" windowHeight="17440" xr2:uid="{E6F9025F-5EF4-AA41-AF9F-D77098D8905B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,6 +220,9 @@
                 <c:pt idx="16">
                   <c:v>45061</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>45063</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>45078</c:v>
                 </c:pt>
@@ -283,8 +286,11 @@
                 <c:pt idx="16">
                   <c:v>204695</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>419780</c:v>
+                </c:pt>
                 <c:pt idx="24">
-                  <c:v>206306.54124951363</c:v>
+                  <c:v>239350.35819894075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,7 +1386,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,13 +1530,21 @@
         <v>204695</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B18">
+        <v>419780</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45078</v>
       </c>
       <c r="B25">
-        <f>_xlfn.FORECAST.LINEAR(A25,B1:B17,A1:A17)</f>
-        <v>206306.54124951363</v>
+        <f>_xlfn.FORECAST.LINEAR(A25,B1:B18,A1:A18)</f>
+        <v>239350.35819894075</v>
       </c>
     </row>
   </sheetData>
